--- a/biology/Zoologie/Josephoartigasia/Josephoartigasia.xlsx
+++ b/biology/Zoologie/Josephoartigasia/Josephoartigasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josephoartigasia est un genre éteint de Dinomyidae proche du pacarana et du capibara actuels. C'est le genre le plus grand de l'ordre des rongeurs.
 Josephoartigasia vivait en Uruguay au cours du Pliocène il y a environ 4 à 2 millions d'années.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">† Josephoartigasia monesi Rinderknecht &amp; Blanco, 2008
 † Josephoartigasia magna (Francis &amp; Mones, 1966)
